--- a/census_demographics.xlsx
+++ b/census_demographics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26480" yWindow="20" windowWidth="25360" windowHeight="18200" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="27580" yWindow="80" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Age" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Female</t>
   </si>
@@ -97,16 +97,16 @@
     <t>Ethnicity</t>
   </si>
   <si>
-    <t>Hispanic or Latino (of any race)</t>
-  </si>
-  <si>
     <t>Not Hispanic or Latino</t>
   </si>
   <si>
-    <t>Other/Multiracial</t>
-  </si>
-  <si>
     <t>https://data.census.gov/cedsci/table?q=Tennessee%20race%20demographics&amp;g=0400000US47&amp;tid=ACSDP1Y2018.DP05&amp;hidePreview=true</t>
+  </si>
+  <si>
+    <t>Other/Two or More Races</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
   </si>
 </sst>
 </file>
@@ -746,10 +746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -807,17 +807,6 @@
       </c>
       <c r="C5">
         <v>1.7584316714450938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6770010</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +824,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,7 +842,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>372901</v>
@@ -864,7 +853,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>6397109</v>
@@ -900,7 +889,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -917,7 +906,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/census_demographics.xlsx
+++ b/census_demographics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27580" yWindow="80" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Age" sheetId="5" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>https://data.census.gov/cedsci/table?q=Tennessee%20race%20demographics&amp;g=0400000US47&amp;tid=ACSDP1Y2018.DP05&amp;hidePreview=true</t>
   </si>
   <si>
-    <t>Other/Two or More Races</t>
+    <t>Other/Multiracial</t>
   </si>
   <si>
     <t>Hispanic or Latino</t>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
